--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D41973-F698-4D27-BDA6-8F509348E210}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -524,164 +524,470 @@
       <c r="A14" s="1">
         <v>0.2</v>
       </c>
+      <c r="B14">
+        <v>205</v>
+      </c>
+      <c r="C14">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="C15">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>205</v>
+      </c>
+      <c r="C16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>205</v>
+      </c>
+      <c r="C17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>211</v>
+      </c>
+      <c r="C18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>194</v>
+      </c>
+      <c r="C19">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>171</v>
+      </c>
+      <c r="C20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>195</v>
+      </c>
+      <c r="C21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>203</v>
+      </c>
+      <c r="C22">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>205</v>
+      </c>
+      <c r="C23">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>167</v>
+      </c>
+      <c r="C24">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>149</v>
+      </c>
+      <c r="C26">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>145</v>
+      </c>
+      <c r="C27">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>149</v>
+      </c>
+      <c r="C28">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>152</v>
+      </c>
+      <c r="C29">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>155</v>
+      </c>
+      <c r="C30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>149</v>
+      </c>
+      <c r="C31">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>156</v>
+      </c>
+      <c r="C32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>152</v>
+      </c>
+      <c r="C33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>139</v>
+      </c>
+      <c r="C34">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>131</v>
+      </c>
+      <c r="C35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>132</v>
+      </c>
+      <c r="C36">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>134</v>
+      </c>
+      <c r="C37">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>133</v>
+      </c>
+      <c r="C39">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>141</v>
+      </c>
+      <c r="C40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>134</v>
+      </c>
+      <c r="C41">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>127</v>
+      </c>
+      <c r="C42">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>137</v>
+      </c>
+      <c r="C43">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>125</v>
+      </c>
+      <c r="C44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>136</v>
+      </c>
+      <c r="C45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>131</v>
+      </c>
+      <c r="C46">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>125</v>
+      </c>
+      <c r="C48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>131</v>
+      </c>
+      <c r="C49">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>115</v>
+      </c>
+      <c r="C50">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>116</v>
+      </c>
+      <c r="C51">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>127</v>
+      </c>
+      <c r="C52">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>121</v>
+      </c>
+      <c r="C53">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>123</v>
+      </c>
+      <c r="C54">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>115</v>
+      </c>
+      <c r="C55">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>126</v>
+      </c>
+      <c r="C56">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>131</v>
+      </c>
+      <c r="C57">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>131</v>
+      </c>
+      <c r="C58">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>121</v>
+      </c>
+      <c r="C60">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>131</v>
+      </c>
+      <c r="C62">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>125</v>
+      </c>
+      <c r="C63">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
+      <c r="B64">
+        <v>119</v>
+      </c>
+      <c r="C64">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
